--- a/biology/Zoologie/Erebinae/Erebinae.xlsx
+++ b/biology/Zoologie/Erebinae/Erebinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Erebinae sont une sous-famille de lépidoptères (papillons) de la famille des Erebidae. Très diversifiée, elle comprend environ 10 000 espèces[1]. Elle est présente sur tous les continents sauf l'Antarctique, et sa diversité est maximale dans les régions tropicales[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Erebinae sont une sous-famille de lépidoptères (papillons) de la famille des Erebidae. Très diversifiée, elle comprend environ 10 000 espèces. Elle est présente sur tous les continents sauf l'Antarctique, et sa diversité est maximale dans les régions tropicales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant les années 2010, la plupart des Erebinae actuels étaient classés dans l'ancienne sous-famille des Catocalinae dans la famille des Noctuidae. Des études de phylogénétique moléculaire ont ensuite conduit à les transférer dans la nouvelle famille des Erebidae. La définition actuelle de la sous-famille des Erebinae découle des travaux de Zahiri et al. publiés en 2012[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant les années 2010, la plupart des Erebinae actuels étaient classés dans l'ancienne sous-famille des Catocalinae dans la famille des Noctuidae. Des études de phylogénétique moléculaire ont ensuite conduit à les transférer dans la nouvelle famille des Erebidae. La définition actuelle de la sous-famille des Erebinae découle des travaux de Zahiri et al. publiés en 2012. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille comprend les tribus suivantes[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille comprend les tribus suivantes, :
 Acantholipini Fibiger &amp; Lafontaine, 2005
 Amphigoniini Guenée, 1852
 Anydrophilini Wiltshire, 1976
@@ -601,7 +617,9 @@
           <t>Quelques genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alophosoma Turner, 1929
 Catocala Schrank, 1802
